--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -221,8 +221,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -500,7 +528,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="回测" sheetId="1" r:id="rId1"/>
+    <sheet name="DataProxy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +168,34 @@
   </si>
   <si>
     <t>策略初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_INITILIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>progress_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_progress_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>progress_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_progress_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新进度条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,17 +554,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.75" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -552,138 +581,161 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>11</v>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -692,4 +744,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="回测" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>更新进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history_bars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新当前可得历史交易信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -648,6 +660,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -659,9 +674,6 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -670,6 +682,17 @@
       </c>
       <c r="D11" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -750,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,30 @@
   </si>
   <si>
     <t>更新当前可得历史交易信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新可卖证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANCEL_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handle_cancel_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收CANCEL_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh_available_position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,17 +590,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.75" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
     <col min="4" max="4" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -728,6 +752,15 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
@@ -760,6 +793,20 @@
       </c>
       <c r="D22" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="回测" sheetId="1" r:id="rId1"/>
     <sheet name="DataProxy" sheetId="2" r:id="rId2"/>
+    <sheet name="模拟" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -829,4 +830,231 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="回测" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>refresh_available_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化进度条(需加载模块sys_progress_bar)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,7 +631,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -836,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,42 @@
   </si>
   <si>
     <t>初始化进度条(需加载模块sys_progress_bar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh_pre_before_trading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh_post_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh_settlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据分红送股、配股信息对仓位和现金进行调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据交易状态、上市退市信息对股票池进行调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_post_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_post_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic_universe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,165 +688,185 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>50</v>
       </c>
     </row>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="回测" sheetId="1" r:id="rId1"/>
+    <sheet name="回测(日线)" sheetId="1" r:id="rId1"/>
     <sheet name="DataProxy" sheetId="2" r:id="rId2"/>
     <sheet name="模拟" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,10 @@
   </si>
   <si>
     <t>dynamic_universe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_on_bar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +638,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -861,7 +865,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="回测(日线)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,15 +268,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update_post_bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dynamic_universe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>match_on_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将用户策略添加到计划任务，每日8:30启动运行，15:30结束运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将策略运行状态，策略各项统计指标，交易记录写入指定文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在每日指定时间点发送交易信号到微信/邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同代码编写的策略，既可以进行回测，也可以进行模拟，只需要更mode参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -774,103 +790,92 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
+      <c r="A13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D15" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -898,15 +903,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="74.125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="36.375" customWidth="1"/>
     <col min="4" max="4" width="23.625" customWidth="1"/>
@@ -1117,6 +1122,31 @@
         <v>50</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="回测(日线)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将用户策略添加到计划任务，每日8:30启动运行，15:30结束运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将策略运行状态，策略各项统计指标，交易记录写入指定文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +289,54 @@
   </si>
   <si>
     <t>相同代码编写的策略，既可以进行回测，也可以进行模拟，只需要更mode参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启后，将作为一个单独进程在后台运行,用cmd开启.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persit_helper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persist_helper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对注册对象进行持久化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对注册对象进行持久化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在模拟模式下展示当前策略状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_post_settlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已删除，改为策略函数initilize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,7 +709,7 @@
     <col min="4" max="4" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,8 +719,11 @@
       <c r="C1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -690,7 +737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -703,8 +750,11 @@
       <c r="D3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -718,7 +768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -729,7 +779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -740,17 +790,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -764,7 +814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -778,7 +828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -789,17 +839,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -811,6 +861,17 @@
       </c>
       <c r="D15" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -835,6 +896,26 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -905,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1129,22 +1210,22 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="回测(日线)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>match_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,14 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>record_account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refresh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>策略，生成Order对象并广播事件ORDER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,26 +180,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始化进度条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新进度条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>history_bars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新当前可得历史交易信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>refresh_available_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初始化进度条(需加载模块sys_progress_bar)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,22 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将策略运行状态，策略各项统计指标，交易记录写入指定文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在每日指定时间点发送交易信号到微信/邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相同代码编写的策略，既可以进行回测，也可以进行模拟，只需要更mode参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启后，将作为一个单独进程在后台运行,用cmd开启.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,6 +289,23 @@
   </si>
   <si>
     <t>已删除，改为策略函数initilize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化当天分红送转、配股、停牌信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh_pre_before_trading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种运行方法:1. 后台一直运行，可以断开，断开必须在5:00之后，并且下一个交易日8:20前需要开启
+2. 将对应的run_paper_trading.py脚本加入计划任务每日8:20开始运行，17:00结束(目前事件源也支持在当天交易结束后运行脚本，但后续信号发送会推迟)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,9 +352,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,29 +689,29 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -748,10 +720,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -759,24 +731,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -811,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -819,24 +791,24 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -854,24 +826,24 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -884,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -898,38 +870,38 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -937,27 +909,27 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -984,9 +956,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -995,10 +967,10 @@
     <col min="1" max="1" width="74.125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="36.375" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1006,135 +978,155 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -1147,32 +1139,52 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>13</v>
       </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -1180,56 +1192,42 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>initilize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>strategy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接收ORDER后，撮合，返回撮合结果，生成并广播FILL_ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接收FILL_ORDER,更新account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,14 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STRATEGY_INITILIZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SYSTEM_INITILIZE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>match_on_bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +265,6 @@
   </si>
   <si>
     <t>show_post_settlement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已删除，改为策略函数initilize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,6 +282,62 @@
   <si>
     <t>两种运行方法:1. 后台一直运行，可以断开，断开必须在5:00之后，并且下一个交易日8:20前需要开启
 2. 将对应的run_paper_trading.py脚本加入计划任务每日8:20开始运行，17:00结束(目前事件源也支持在当天交易结束后运行脚本，但后续信号发送会推迟)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_on_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据接收的ORDER进行撮合,广播FILL_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收CANCEL_ORDER事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析broker.blotter中的订单，生成买卖列表发送到Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_sender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_email_on_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_email_post_before_trading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不实现。未来会考虑用其来发送成交数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在交易开始前，用户通过context的signal_post_before_trading定义需要盘前传递的信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,41 +721,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -731,24 +746,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -756,10 +771,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -780,156 +795,167 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+      <c r="D13" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>11</v>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -956,10 +982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -968,6 +994,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="36.375" customWidth="1"/>
     <col min="4" max="4" width="54.75" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -978,24 +1005,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1003,35 +1021,35 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1042,13 +1060,22 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -1063,166 +1090,182 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>9</v>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,10 @@
   </si>
   <si>
     <t>在交易开始前，用户通过context的signal_post_before_trading定义需要盘前传递的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_email_post_after_trading</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,7 +989,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1160,6 +1164,12 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" t="s">

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="回测(日线)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>send_email_post_after_trading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_pre_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新bar_map,添加当前bar信息供account与broker使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,6 +801,15 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -988,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,14 @@
   </si>
   <si>
     <t>更新bar_map,添加当前bar信息供account与broker使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear_post_settlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除当日的bar数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -941,45 +949,56 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>69</v>
       </c>
     </row>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
-    <sheet name="回测(日线)" sheetId="1" r:id="rId1"/>
+    <sheet name="回测" sheetId="1" r:id="rId1"/>
     <sheet name="DataProxy" sheetId="2" r:id="rId2"/>
     <sheet name="模拟" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">回测!$B$1:$B$33</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +288,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>broker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_on_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据接收的ORDER进行撮合,广播FILL_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>collect_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,30 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>broker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>match_on_bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据接收的ORDER进行撮合,广播FILL_ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收CANCEL_ORDER事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解析broker.blotter中的订单，生成买卖列表发送到Email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +353,130 @@
   </si>
   <si>
     <t>清除当日的bar数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PENDING_NEW_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PENDING_NEW_ORDER_PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KILL_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KILL_ORDER_PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录历史提交订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REJECT_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handle_kill_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收撤单申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_new_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_new_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_fill_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录已成订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收已成订单,更新account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_rejected_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录撤单历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据分红送股、配股信息对仓位和现金进行调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据交易状态、上市退市信息对股票池进行调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略,支持下单、撤单、查单；行情查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撮合订单池中的订单，发布成交、拒绝事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对注册对象进行持久化保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录历史被拒订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听函数(按顺序)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_kill_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handle_fill_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_daily_settlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录当日结算后账户数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,21 +838,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="31.75" customWidth="1"/>
-    <col min="4" max="4" width="54.5" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,13 +860,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -765,7 +880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -776,10 +891,10 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -787,10 +902,10 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -801,26 +916,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -831,21 +946,21 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -859,7 +974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -870,17 +985,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -894,7 +1009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>51</v>
       </c>
@@ -905,12 +1020,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -924,85 +1039,150 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>82</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B33"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1017,7 +1197,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1032,16 +1212,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.125" customWidth="1"/>
+    <col min="1" max="1" width="74.109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="36.375" customWidth="1"/>
-    <col min="4" max="4" width="54.75" customWidth="1"/>
-    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54.77734375" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,12 +1235,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>48</v>
       </c>
@@ -1085,7 +1265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -1096,7 +1276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1107,26 +1287,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1140,32 +1320,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1190,28 +1370,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>51</v>
       </c>
@@ -1222,12 +1402,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1255,7 +1435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -1266,7 +1446,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1274,13 +1454,13 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1294,7 +1474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1308,12 +1488,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>

--- a/事件与监听设定.xlsx
+++ b/事件与监听设定.xlsx
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
